--- a/Mifos Automation Excels/Client/Scenario3-Chaithanyaprod-LATE-TR1-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/Scenario3-Chaithanyaprod-LATE-TR1-Makerepayment1.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,7 @@
         <v>6576.03</v>
       </c>
       <c r="F3" s="8">
-        <v>5260.27</v>
+        <v>4871.13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2839</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2837</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
